--- a/views/TOP_10_diferencia_estimacion_mejor_modelo.xlsx
+++ b/views/TOP_10_diferencia_estimacion_mejor_modelo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">log_salario_m</t>
   </si>
@@ -24,9 +24,6 @@
   </si>
   <si>
     <t xml:space="preserve">log_salario_m_percentil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variable_relativa_diferencia</t>
   </si>
 </sst>
 </file>
@@ -371,9 +368,6 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -388,9 +382,6 @@
       <c r="D2" t="n">
         <v>0.589821368385575</v>
       </c>
-      <c r="E2" t="n">
-        <v>9.26032293631702</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -405,9 +396,6 @@
       <c r="D3" t="n">
         <v>20.5763397371082</v>
       </c>
-      <c r="E3" t="n">
-        <v>7.41766964831524</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -422,9 +410,6 @@
       <c r="D4" t="n">
         <v>99.561846983485</v>
       </c>
-      <c r="E4" t="n">
-        <v>6.98589727597137</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -439,9 +424,6 @@
       <c r="D5" t="n">
         <v>99.561846983485</v>
       </c>
-      <c r="E5" t="n">
-        <v>6.86567047721009</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -456,9 +438,6 @@
       <c r="D6" t="n">
         <v>99.561846983485</v>
       </c>
-      <c r="E6" t="n">
-        <v>5.97503686025115</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -473,9 +452,6 @@
       <c r="D7" t="n">
         <v>97.2868217054264</v>
       </c>
-      <c r="E7" t="n">
-        <v>5.54647114332854</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -490,9 +466,6 @@
       <c r="D8" t="n">
         <v>6.50488709133805</v>
       </c>
-      <c r="E8" t="n">
-        <v>5.01134499036118</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -507,9 +480,6 @@
       <c r="D9" t="n">
         <v>94.6579036063364</v>
       </c>
-      <c r="E9" t="n">
-        <v>4.82987568712649</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -524,9 +494,6 @@
       <c r="D10" t="n">
         <v>1.7020559487698</v>
       </c>
-      <c r="E10" t="n">
-        <v>4.7367095519808</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -540,9 +507,6 @@
       </c>
       <c r="D11" t="n">
         <v>96.8318166498146</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4.71008252227352</v>
       </c>
     </row>
   </sheetData>

--- a/views/TOP_10_diferencia_estimacion_mejor_modelo.xlsx
+++ b/views/TOP_10_diferencia_estimacion_mejor_modelo.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">log_salario_m</t>
   </si>
   <si>
     <t xml:space="preserve">mejormodelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leverage</t>
   </si>
   <si>
     <t xml:space="preserve">diferencia_absoluta</t>
@@ -368,6 +371,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -377,9 +383,12 @@
         <v>14.0354300785373</v>
       </c>
       <c r="C2" t="n">
+        <v>0.0403511800205949</v>
+      </c>
+      <c r="D2" t="n">
         <v>2.22573892238228</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.589821368385575</v>
       </c>
     </row>
@@ -391,9 +400,12 @@
         <v>15.6504028510377</v>
       </c>
       <c r="C3" t="n">
+        <v>0.0338757459099977</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.00386494428162</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>20.5763397371082</v>
       </c>
     </row>
@@ -405,9 +417,12 @@
         <v>14.3712413455516</v>
       </c>
       <c r="C4" t="n">
+        <v>0.0079911351328191</v>
+      </c>
+      <c r="D4" t="n">
         <v>1.94389344200676</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>99.561846983485</v>
       </c>
     </row>
@@ -419,9 +434,12 @@
         <v>14.38860108709</v>
       </c>
       <c r="C5" t="n">
+        <v>0.00805498327369074</v>
+      </c>
+      <c r="D5" t="n">
         <v>1.92653370046841</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>99.561846983485</v>
       </c>
     </row>
@@ -433,9 +451,12 @@
         <v>14.5275445206801</v>
       </c>
       <c r="C6" t="n">
+        <v>0.0133052258592381</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.78759026687824</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>99.561846983485</v>
       </c>
     </row>
@@ -447,9 +468,12 @@
         <v>14.1628621942568</v>
       </c>
       <c r="C7" t="n">
+        <v>0.00881955958547478</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.71316189550181</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>97.2868217054264</v>
       </c>
     </row>
@@ -461,9 +485,12 @@
         <v>14.7128440811702</v>
       </c>
       <c r="C8" t="n">
+        <v>0.0352930997762164</v>
+      </c>
+      <c r="D8" t="n">
         <v>1.61170434021746</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>6.50488709133805</v>
       </c>
     </row>
@@ -475,9 +502,12 @@
         <v>13.8501277407201</v>
       </c>
       <c r="C9" t="n">
+        <v>0.027883633403197</v>
+      </c>
+      <c r="D9" t="n">
         <v>1.57482072967829</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>94.6579036063364</v>
       </c>
     </row>
@@ -489,9 +519,12 @@
         <v>13.7614153528317</v>
       </c>
       <c r="C10" t="n">
+        <v>0.0469597942628262</v>
+      </c>
+      <c r="D10" t="n">
         <v>1.55534270730156</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>1.7020559487698</v>
       </c>
     </row>
@@ -503,9 +536,12 @@
         <v>14.2479553864694</v>
       </c>
       <c r="C11" t="n">
+        <v>0.00666557523523745</v>
+      </c>
+      <c r="D11" t="n">
         <v>1.54970542852739</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>96.8318166498146</v>
       </c>
     </row>
